--- a/test/networkbu/Test/T10x/excel_file.xlsx
+++ b/test/networkbu/Test/T10x/excel_file.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Total Executed Test cases</t>
-  </si>
-  <si>
-    <t>ciel_t10x_2020-03-29 11:23:33</t>
   </si>
   <si>
     <t>Total Passed Test cases</t>
@@ -131,7 +128,70 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -488,7 +548,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -511,13 +571,10 @@
         <f>COUNTA(C6:C1000)</f>
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <f>COUNTIF(C6:C1000,"PASS")</f>
@@ -526,7 +583,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <f>COUNTIF(C6:C1000,"FAIL")</f>
@@ -535,7 +592,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <f>COUNTIF(C6:C1000,"ERROR")</f>
@@ -544,62 +601,95 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:C1048576">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",C6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G1048576">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",G6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",G6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",G6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F1048576">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",F6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",F6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",F6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C13">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",C6)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",C6)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G1048576">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",G6)))</formula>
+  <conditionalFormatting sqref="G6:G13">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",G6)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",G6)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F1048576">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",F6)))</formula>
+  <conditionalFormatting sqref="F6:F13">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",F6)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",F6)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
